--- a/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-06-18.xlsx
+++ b/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-06-18.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Minutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues From Last Minutes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Minutes!#REF!</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -133,6 +133,51 @@
   <si>
     <t>Schedules will be shown to the worker for him to pick up.
 Once the barcode of the cylinder is scanned details of the work to be done will be shown to the worker for him to pick up.</t>
+  </si>
+  <si>
+    <t>UCRR</t>
+  </si>
+  <si>
+    <t>Task is assigned for each member to create UCRR during this meeting.</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>UC Model Survey &amp; Class Diagram</t>
+  </si>
+  <si>
+    <t>User Interface Prototype</t>
+  </si>
+  <si>
+    <t>Tin Kyaw oo</t>
+  </si>
+  <si>
+    <t>UCRRs for Department Manager</t>
+  </si>
+  <si>
+    <t>UCRRs for Operation Manager</t>
+  </si>
+  <si>
+    <t>Roger Koh</t>
+  </si>
+  <si>
+    <t>UCRRs for Worker and Accountant</t>
+  </si>
+  <si>
+    <t>UCRRs for Sales Staff and Employee</t>
+  </si>
+  <si>
+    <t>Class Diagram for UCRR</t>
+  </si>
+  <si>
+    <t>Tim provided the team with the class diagram necessary for the UCRR.</t>
+  </si>
+  <si>
+    <t>Designing UCRR on paper first</t>
+  </si>
+  <si>
+    <t>Alvin suggested that we design the UCRR on paper 1st then combine all at one shot using Rose.</t>
   </si>
 </sst>
 </file>
@@ -629,7 +674,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -843,12 +888,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>